--- a/Documentos/Product Backlog.xlsx
+++ b/Documentos/Product Backlog.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\usuario\Documents\FPUNA\IS2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\usuario\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7770"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja 1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="65">
   <si>
     <t>Product Backlog</t>
   </si>
@@ -36,9 +36,6 @@
     <t>ESTADO</t>
   </si>
   <si>
-    <t>DIMENSIÓN / ESFUERZO</t>
-  </si>
-  <si>
     <t>PRIORIDAD</t>
   </si>
   <si>
@@ -51,78 +48,15 @@
     <t>Alta</t>
   </si>
   <si>
-    <t>Moficación de usuarios</t>
-  </si>
-  <si>
-    <t>Baja</t>
-  </si>
-  <si>
-    <t>Definir US</t>
-  </si>
-  <si>
-    <t>Definir sprint</t>
-  </si>
-  <si>
-    <t>Asignar US</t>
-  </si>
-  <si>
     <t>-</t>
   </si>
   <si>
     <t>Media</t>
   </si>
   <si>
-    <t>Generar reportes</t>
-  </si>
-  <si>
-    <t>Visualizar reportes</t>
-  </si>
-  <si>
-    <t>Visualizar avance</t>
-  </si>
-  <si>
-    <t>Acceso al Sistema</t>
-  </si>
-  <si>
-    <t>Alta Usuarios</t>
-  </si>
-  <si>
-    <t>Como usuario necesito eliminar usuarios con la finalidad de mantener actualizados los datos del equipo.</t>
-  </si>
-  <si>
-    <t>Como usuario necesito asignar los user histories con la finalidad de ejecutar las tareas.</t>
-  </si>
-  <si>
-    <t>Como usuario necesito obtener gráficos con la finalidad de visualizar el estado de las tareas asignadas.</t>
-  </si>
-  <si>
-    <t>Como usuario necesito ver reportes con la finalidad de visualizar el estado de las tareas asignadas.</t>
-  </si>
-  <si>
-    <t>Como usuario necesito obtener gráficos con la finalidad de visualizar un reporte del avance general del Proyecto.</t>
-  </si>
-  <si>
     <t>Finalizado</t>
   </si>
   <si>
-    <t>En Proceso</t>
-  </si>
-  <si>
-    <t>Como usuario necesito registrarme al sistema acceder al sistema en cuestión.</t>
-  </si>
-  <si>
-    <t>Como usuario necesito modificar los datos con la finalidad de tener actualizado el perfil del usuario.</t>
-  </si>
-  <si>
-    <t>Como usuario necesito definir user histories con la finalidad de crear las tareas.</t>
-  </si>
-  <si>
-    <t>Como usuario necesito definir sprints con la finalidad de planificar las tareas.</t>
-  </si>
-  <si>
-    <t>Baja Usuario</t>
-  </si>
-  <si>
     <t>00-0000-0001</t>
   </si>
   <si>
@@ -154,13 +88,139 @@
   </si>
   <si>
     <t>FECHA TENTATIVA DE ENTREGA</t>
+  </si>
+  <si>
+    <t>Como usuario necesito registrarme para acceder al sistema.</t>
+  </si>
+  <si>
+    <t>00-0000-0011</t>
+  </si>
+  <si>
+    <t>Como administrador necesito eliminar usuarios con la finalidad de mantener actualizada la lista.</t>
+  </si>
+  <si>
+    <t>Como usuario necesito modificar mi perfil con la finalidad de tener actualizados mis datos.</t>
+  </si>
+  <si>
+    <t>Como administrador necesito modificar usuarios con la finalidad de mantener actualizada la lista.</t>
+  </si>
+  <si>
+    <t>Como administrador necesito agregar usuarios con la finalidad de mantener actualizada la lista.</t>
+  </si>
+  <si>
+    <t>Alta Usuario</t>
+  </si>
+  <si>
+    <t>DIMENSIÓN / ESFUERZO/ CANT DIAS</t>
+  </si>
+  <si>
+    <t>Como administrador del sistema puedo cambiar el tipo de usuario.</t>
+  </si>
+  <si>
+    <t>Como administrador necesito listar los usuarios con la finalidad de visualizar las personas registradas.</t>
+  </si>
+  <si>
+    <t>Listar usuarios</t>
+  </si>
+  <si>
+    <t>Crear tarea</t>
+  </si>
+  <si>
+    <t>Como administrador necesito modificar tareas con la finalidad de gestionar el proyecto.</t>
+  </si>
+  <si>
+    <t>Como administrador necesito crear tareas con la finalidad de asignar al usuario responsable .</t>
+  </si>
+  <si>
+    <t>Como administrador necesito eliminar tareas con la finalidad de mantener actualizada la lista de UserHistories.</t>
+  </si>
+  <si>
+    <t>Como administrador necesito listar tareas con la finalidad de visualizar el estado de las mismas.</t>
+  </si>
+  <si>
+    <t>Listar tareas</t>
+  </si>
+  <si>
+    <t>Modificar tareas</t>
+  </si>
+  <si>
+    <t>Modificar usuarios</t>
+  </si>
+  <si>
+    <t>Modificar perfil</t>
+  </si>
+  <si>
+    <t>Baja usuario</t>
+  </si>
+  <si>
+    <t>Acceso al sistema</t>
+  </si>
+  <si>
+    <t>Alta usuarios</t>
+  </si>
+  <si>
+    <t>Baja tareas</t>
+  </si>
+  <si>
+    <t>Como usuario necesito ver mis tareas con la finalidad de visualizar aquellas de las cuales soy responsable.</t>
+  </si>
+  <si>
+    <t>Ver mis tareas</t>
+  </si>
+  <si>
+    <t>Como administrador puedo modificar todos los datos de la tarea.</t>
+  </si>
+  <si>
+    <t>Como usuario puedo modificar la tarea con la finalidad de cambiarle el estado.</t>
+  </si>
+  <si>
+    <t>Modificar estado tarea</t>
+  </si>
+  <si>
+    <t>Como usuario sólo puedo cambiar el estado de mi tarea.</t>
+  </si>
+  <si>
+    <t>Como usuario necesito recibir notificaciones emergentes con la finalidad de avisarme la proximidad de la fecha fin de mi tarea</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Notificar </t>
+  </si>
+  <si>
+    <t>00-0000-0012</t>
+  </si>
+  <si>
+    <t>00-0000-0013</t>
+  </si>
+  <si>
+    <t>00-0000-0014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Recibir la notificación 2(dos) días antes de la fecha de finalización de la tarea. </t>
+  </si>
+  <si>
+    <t>Integrantes:</t>
+  </si>
+  <si>
+    <t>Micaela Gisselle Paredes Villalba</t>
+  </si>
+  <si>
+    <t>Analía Victoria Revolero Santacruz</t>
+  </si>
+  <si>
+    <t>Jessica Paola Reyes Páez</t>
+  </si>
+  <si>
+    <t>C.I. N°</t>
+  </si>
+  <si>
+    <t>Nombres y Apellidos</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -176,22 +236,45 @@
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-    </font>
-    <font>
       <b/>
-      <sz val="16"/>
+      <sz val="14"/>
+      <color theme="8" tint="-0.499984740745262"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
-      <sz val="10"/>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="22"/>
+      <color theme="8" tint="-0.499984740745262"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -199,10 +282,24 @@
       <patternFill patternType="gray125"/>
     </fill>
     <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
+      <gradientFill degree="270">
+        <stop position="0">
+          <color theme="0"/>
+        </stop>
+        <stop position="1">
+          <color theme="4"/>
+        </stop>
+      </gradientFill>
+    </fill>
+    <fill>
+      <gradientFill degree="90">
+        <stop position="0">
+          <color theme="0"/>
+        </stop>
+        <stop position="1">
+          <color theme="4"/>
+        </stop>
+      </gradientFill>
     </fill>
   </fills>
   <borders count="2">
@@ -232,7 +329,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -243,29 +340,41 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -550,385 +659,551 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:Z24"/>
+  <dimension ref="A1:Z33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15.85546875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="100" style="1" customWidth="1"/>
-    <col min="3" max="3" width="23.28515625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1"/>
-    <col min="5" max="5" width="18" style="1" customWidth="1"/>
-    <col min="6" max="6" width="24.140625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="17.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="18.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="141.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="31.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="29.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="89" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="16384" width="14.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="2"/>
-      <c r="R1" s="2"/>
-      <c r="S1" s="2"/>
-      <c r="T1" s="2"/>
-      <c r="U1" s="2"/>
-      <c r="V1" s="2"/>
-      <c r="W1" s="2"/>
-      <c r="X1" s="2"/>
-      <c r="Y1" s="2"/>
-      <c r="Z1" s="2"/>
-    </row>
-    <row r="2" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="10" t="s">
+    <row r="1" spans="1:26" s="11" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="2" spans="1:26" s="9" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="7">
+        <v>1</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="C2" s="8">
+        <v>4449672</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26" s="9" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="7">
+        <v>2</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="C3" s="8">
+        <v>5412800</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26" s="9" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="7">
+        <v>3</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C4" s="8">
+        <v>4003493</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+      <c r="M6" s="2"/>
+      <c r="N6" s="2"/>
+      <c r="O6" s="2"/>
+      <c r="P6" s="2"/>
+      <c r="Q6" s="2"/>
+      <c r="R6" s="2"/>
+      <c r="S6" s="2"/>
+      <c r="T6" s="2"/>
+      <c r="U6" s="2"/>
+      <c r="V6" s="2"/>
+      <c r="W6" s="2"/>
+      <c r="X6" s="2"/>
+      <c r="Y6" s="2"/>
+      <c r="Z6" s="2"/>
+    </row>
+    <row r="7" spans="1:26" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="10"/>
-    </row>
-    <row r="3" spans="1:26" ht="31.5" x14ac:dyDescent="0.2">
-      <c r="A3" s="11" t="s">
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+    </row>
+    <row r="8" spans="1:26" s="5" customFormat="1" ht="54" x14ac:dyDescent="0.2">
+      <c r="A8" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B8" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C8" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="D8" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="11" t="s">
+      <c r="E8" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G8" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="11" t="s">
+      <c r="H8" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" s="14" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" s="12">
+        <v>1</v>
+      </c>
+      <c r="F9" s="13">
+        <v>43170</v>
+      </c>
+      <c r="G9" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="H9" s="12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" s="14" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="G3" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="H3" s="11" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="5" t="s">
+      <c r="D10" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" s="12">
+        <v>1</v>
+      </c>
+      <c r="F10" s="13">
+        <v>43191</v>
+      </c>
+      <c r="G10" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="H10" s="12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" s="14" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" s="12">
+        <v>2</v>
+      </c>
+      <c r="F11" s="13">
+        <v>43219</v>
+      </c>
+      <c r="G11" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="H11" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="I11" s="15"/>
+      <c r="J11" s="15"/>
+      <c r="K11" s="15"/>
+      <c r="L11" s="15"/>
+      <c r="M11" s="15"/>
+      <c r="N11" s="15"/>
+      <c r="O11" s="15"/>
+      <c r="P11" s="15"/>
+      <c r="Q11" s="15"/>
+      <c r="R11" s="15"/>
+      <c r="S11" s="15"/>
+      <c r="T11" s="15"/>
+      <c r="U11" s="15"/>
+      <c r="V11" s="15"/>
+      <c r="W11" s="15"/>
+      <c r="X11" s="15"/>
+      <c r="Y11" s="15"/>
+      <c r="Z11" s="15"/>
+    </row>
+    <row r="12" spans="1:26" s="14" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" s="12">
+        <v>1</v>
+      </c>
+      <c r="F12" s="13">
+        <v>43219</v>
+      </c>
+      <c r="G12" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="H12" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="I12" s="15"/>
+      <c r="J12" s="15"/>
+      <c r="K12" s="15"/>
+      <c r="L12" s="15"/>
+      <c r="M12" s="15"/>
+      <c r="N12" s="15"/>
+      <c r="O12" s="15"/>
+      <c r="P12" s="15"/>
+      <c r="Q12" s="15"/>
+      <c r="R12" s="15"/>
+      <c r="S12" s="15"/>
+      <c r="T12" s="15"/>
+      <c r="U12" s="15"/>
+      <c r="V12" s="15"/>
+      <c r="W12" s="15"/>
+      <c r="X12" s="15"/>
+      <c r="Y12" s="15"/>
+      <c r="Z12" s="15"/>
+    </row>
+    <row r="13" spans="1:26" s="14" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" s="12">
+        <v>3</v>
+      </c>
+      <c r="F13" s="13">
+        <v>43219</v>
+      </c>
+      <c r="G13" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="H13" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="I13" s="15"/>
+      <c r="J13" s="15"/>
+      <c r="K13" s="15"/>
+      <c r="L13" s="15"/>
+      <c r="M13" s="15"/>
+      <c r="N13" s="15"/>
+      <c r="O13" s="15"/>
+      <c r="P13" s="15"/>
+      <c r="Q13" s="15"/>
+      <c r="R13" s="15"/>
+      <c r="S13" s="15"/>
+      <c r="T13" s="15"/>
+      <c r="U13" s="15"/>
+      <c r="V13" s="15"/>
+      <c r="W13" s="15"/>
+      <c r="X13" s="15"/>
+      <c r="Y13" s="15"/>
+      <c r="Z13" s="15"/>
+    </row>
+    <row r="14" spans="1:26" s="14" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" s="12">
+        <v>3</v>
+      </c>
+      <c r="F14" s="13">
+        <v>43219</v>
+      </c>
+      <c r="G14" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="H14" s="12" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" s="14" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="D15" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E15" s="12">
+        <v>2</v>
+      </c>
+      <c r="F15" s="13">
+        <v>43219</v>
+      </c>
+      <c r="G15" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="H15" s="12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" s="14" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="C16" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="B4" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="C4" s="5" t="s">
+      <c r="D16" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E16" s="12">
+        <v>4</v>
+      </c>
+      <c r="F16" s="13">
+        <v>43226</v>
+      </c>
+      <c r="G16" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="H16" s="12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" s="14" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="C17" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="D17" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E17" s="12">
+        <v>4</v>
+      </c>
+      <c r="F17" s="13">
+        <v>43226</v>
+      </c>
+      <c r="G17" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="H17" s="12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" s="14" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="D4" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="E4" s="5">
-        <v>1</v>
-      </c>
-      <c r="F4" s="6">
-        <v>43304</v>
-      </c>
-      <c r="G4" s="5" t="s">
+      <c r="B18" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="C18" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="D18" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E18" s="12">
+        <v>4</v>
+      </c>
+      <c r="F18" s="13">
+        <v>43226</v>
+      </c>
+      <c r="G18" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="H18" s="12" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" s="14" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="C19" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="D19" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E19" s="12">
+        <v>4</v>
+      </c>
+      <c r="F19" s="13">
+        <v>43226</v>
+      </c>
+      <c r="G19" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="H19" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="H4" s="7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="B5" s="5" t="s">
+    </row>
+    <row r="20" spans="1:8" s="14" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="B20" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="C20" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="D20" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E20" s="12">
+        <v>5</v>
+      </c>
+      <c r="F20" s="13">
+        <v>43233</v>
+      </c>
+      <c r="G20" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="E5" s="5">
-        <v>1</v>
-      </c>
-      <c r="F5" s="6">
-        <v>43304</v>
-      </c>
-      <c r="G5" s="5" t="s">
+      <c r="H20" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="H5" s="7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C6" s="5" t="s">
+    </row>
+    <row r="21" spans="1:8" s="14" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="B21" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="C21" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="D21" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E21" s="12">
+        <v>2</v>
+      </c>
+      <c r="F21" s="13">
+        <v>43233</v>
+      </c>
+      <c r="G21" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="E6" s="5">
-        <v>1</v>
-      </c>
-      <c r="F6" s="6">
-        <v>43304</v>
-      </c>
-      <c r="G6" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="H6" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
-      <c r="K6" s="4"/>
-      <c r="L6" s="4"/>
-      <c r="M6" s="4"/>
-      <c r="N6" s="4"/>
-      <c r="O6" s="4"/>
-      <c r="P6" s="4"/>
-      <c r="Q6" s="4"/>
-      <c r="R6" s="4"/>
-      <c r="S6" s="4"/>
-      <c r="T6" s="4"/>
-      <c r="U6" s="4"/>
-      <c r="V6" s="4"/>
-      <c r="W6" s="4"/>
-      <c r="X6" s="4"/>
-      <c r="Y6" s="4"/>
-      <c r="Z6" s="4"/>
-    </row>
-    <row r="7" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="E7" s="5">
-        <v>1</v>
-      </c>
-      <c r="F7" s="6">
-        <v>43178</v>
-      </c>
-      <c r="G7" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="H7" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="I7" s="4"/>
-      <c r="J7" s="4"/>
-      <c r="K7" s="4"/>
-      <c r="L7" s="4"/>
-      <c r="M7" s="4"/>
-      <c r="N7" s="4"/>
-      <c r="O7" s="4"/>
-      <c r="P7" s="4"/>
-      <c r="Q7" s="4"/>
-      <c r="R7" s="4"/>
-      <c r="S7" s="4"/>
-      <c r="T7" s="4"/>
-      <c r="U7" s="4"/>
-      <c r="V7" s="4"/>
-      <c r="W7" s="4"/>
-      <c r="X7" s="4"/>
-      <c r="Y7" s="4"/>
-      <c r="Z7" s="4"/>
-    </row>
-    <row r="8" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="E8" s="8">
-        <v>2</v>
-      </c>
-      <c r="F8" s="9">
-        <v>43175</v>
-      </c>
-      <c r="G8" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="H8" s="7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="E9" s="8">
-        <v>2</v>
-      </c>
-      <c r="F9" s="9">
-        <v>43171</v>
-      </c>
-      <c r="G9" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="H9" s="7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="E10" s="5">
-        <v>2</v>
-      </c>
-      <c r="F10" s="9">
-        <v>43171</v>
-      </c>
-      <c r="G10" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="H10" s="7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="11" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="E11" s="5">
+      <c r="H21" s="12" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" s="14" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="B22" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="C22" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="D22" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E22" s="12">
         <v>3</v>
       </c>
-      <c r="F11" s="6">
-        <v>43168</v>
-      </c>
-      <c r="G11" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="H11" s="7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="12" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="E12" s="5">
-        <v>1</v>
-      </c>
-      <c r="F12" s="6">
-        <v>43168</v>
-      </c>
-      <c r="G12" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="H12" s="7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="13" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="E13" s="5">
-        <v>1</v>
-      </c>
-      <c r="F13" s="6">
-        <v>43168</v>
-      </c>
-      <c r="G13" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="H13" s="7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="24" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B24" s="3"/>
+      <c r="F22" s="13">
+        <v>43240</v>
+      </c>
+      <c r="G22" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="H22" s="12" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B33" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="A7:H7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
